--- a/MATLAB_code/GEIGER_DOME.xlsx
+++ b/MATLAB_code/GEIGER_DOME.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Prestress_finding\MATLAB_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112F393-4221-404B-B953-EB2B61C925C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3058D6-52C3-45C9-861F-F22A5D89343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="919" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="919" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONEXIONES CON" sheetId="1" r:id="rId1"/>
-    <sheet name="COORDENADAS COOR" sheetId="2" r:id="rId2"/>
-    <sheet name="NODOS LIBRES NL" sheetId="3" r:id="rId3"/>
+    <sheet name="CONNECTIVITY" sheetId="1" r:id="rId1"/>
+    <sheet name="COORDINATES" sheetId="2" r:id="rId2"/>
+    <sheet name="FREE NODES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NODOS LIBRES NL'!$A$4:$A$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FREE NODES'!$A$4:$A$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A109" sqref="A109:E156"/>
     </sheetView>
   </sheetViews>
@@ -4775,7 +4775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4783,433 +4783,433 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>+'COORDENADAS COOR'!A1</f>
+        <f>+COORDINATES!A1</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>+'COORDENADAS COOR'!A2</f>
+        <f>+COORDINATES!A2</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>+'COORDENADAS COOR'!A3</f>
+        <f>+COORDINATES!A3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>+'COORDENADAS COOR'!A4</f>
+        <f>+COORDINATES!A4</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>+'COORDENADAS COOR'!A5</f>
+        <f>+COORDINATES!A5</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>+'COORDENADAS COOR'!A6</f>
+        <f>+COORDINATES!A6</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>+'COORDENADAS COOR'!A7</f>
+        <f>+COORDINATES!A7</f>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>+'COORDENADAS COOR'!A8</f>
+        <f>+COORDINATES!A8</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>+'COORDENADAS COOR'!A9</f>
+        <f>+COORDINATES!A9</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>+'COORDENADAS COOR'!A10</f>
+        <f>+COORDINATES!A10</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>+'COORDENADAS COOR'!A11</f>
+        <f>+COORDINATES!A11</f>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>+'COORDENADAS COOR'!A12</f>
+        <f>+COORDINATES!A12</f>
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>+'COORDENADAS COOR'!A13</f>
+        <f>+COORDINATES!A13</f>
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>+'COORDENADAS COOR'!A14</f>
+        <f>+COORDINATES!A14</f>
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>+'COORDENADAS COOR'!A15</f>
+        <f>+COORDINATES!A15</f>
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>+'COORDENADAS COOR'!A16</f>
+        <f>+COORDINATES!A16</f>
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>+'COORDENADAS COOR'!A17</f>
+        <f>+COORDINATES!A17</f>
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>+'COORDENADAS COOR'!A18</f>
+        <f>+COORDINATES!A18</f>
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>+'COORDENADAS COOR'!A19</f>
+        <f>+COORDINATES!A19</f>
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>+'COORDENADAS COOR'!A20</f>
+        <f>+COORDINATES!A20</f>
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>+'COORDENADAS COOR'!A21</f>
+        <f>+COORDINATES!A21</f>
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>+'COORDENADAS COOR'!A22</f>
+        <f>+COORDINATES!A22</f>
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>+'COORDENADAS COOR'!A23</f>
+        <f>+COORDINATES!A23</f>
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>+'COORDENADAS COOR'!A24</f>
+        <f>+COORDINATES!A24</f>
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>+'COORDENADAS COOR'!A25</f>
+        <f>+COORDINATES!A25</f>
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>+'COORDENADAS COOR'!A26</f>
+        <f>+COORDINATES!A26</f>
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>+'COORDENADAS COOR'!A27</f>
+        <f>+COORDINATES!A27</f>
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>+'COORDENADAS COOR'!A28</f>
+        <f>+COORDINATES!A28</f>
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>+'COORDENADAS COOR'!A29</f>
+        <f>+COORDINATES!A29</f>
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>+'COORDENADAS COOR'!A30</f>
+        <f>+COORDINATES!A30</f>
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>+'COORDENADAS COOR'!A31</f>
+        <f>+COORDINATES!A31</f>
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>+'COORDENADAS COOR'!A32</f>
+        <f>+COORDINATES!A32</f>
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>+'COORDENADAS COOR'!A33</f>
+        <f>+COORDINATES!A33</f>
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>+'COORDENADAS COOR'!A34</f>
+        <f>+COORDINATES!A34</f>
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>+'COORDENADAS COOR'!A35</f>
+        <f>+COORDINATES!A35</f>
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>+'COORDENADAS COOR'!A36</f>
+        <f>+COORDINATES!A36</f>
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>+'COORDENADAS COOR'!A37</f>
+        <f>+COORDINATES!A37</f>
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>+'COORDENADAS COOR'!A38</f>
+        <f>+COORDINATES!A38</f>
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>+'COORDENADAS COOR'!A39</f>
+        <f>+COORDINATES!A39</f>
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>+'COORDENADAS COOR'!A40</f>
+        <f>+COORDINATES!A40</f>
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>+'COORDENADAS COOR'!A41</f>
+        <f>+COORDINATES!A41</f>
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>+'COORDENADAS COOR'!A42</f>
+        <f>+COORDINATES!A42</f>
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>+'COORDENADAS COOR'!A43</f>
+        <f>+COORDINATES!A43</f>
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>+'COORDENADAS COOR'!A44</f>
+        <f>+COORDINATES!A44</f>
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>+'COORDENADAS COOR'!A45</f>
+        <f>+COORDINATES!A45</f>
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>+'COORDENADAS COOR'!A46</f>
+        <f>+COORDINATES!A46</f>
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>+'COORDENADAS COOR'!A47</f>
+        <f>+COORDINATES!A47</f>
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>+'COORDENADAS COOR'!A48</f>
+        <f>+COORDINATES!A48</f>
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>+'COORDENADAS COOR'!A49</f>
+        <f>+COORDINATES!A49</f>
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>+'COORDENADAS COOR'!A50</f>
+        <f>+COORDINATES!A50</f>
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>+'COORDENADAS COOR'!A51</f>
+        <f>+COORDINATES!A51</f>
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>+'COORDENADAS COOR'!A52</f>
+        <f>+COORDINATES!A52</f>
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>+'COORDENADAS COOR'!A53</f>
+        <f>+COORDINATES!A53</f>
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>+'COORDENADAS COOR'!A54</f>
+        <f>+COORDINATES!A54</f>
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>+'COORDENADAS COOR'!A55</f>
+        <f>+COORDINATES!A55</f>
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>+'COORDENADAS COOR'!A56</f>
+        <f>+COORDINATES!A56</f>
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>+'COORDENADAS COOR'!A57</f>
+        <f>+COORDINATES!A57</f>
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>+'COORDENADAS COOR'!A58</f>
+        <f>+COORDINATES!A58</f>
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>+'COORDENADAS COOR'!A59</f>
+        <f>+COORDINATES!A59</f>
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>+'COORDENADAS COOR'!A60</f>
+        <f>+COORDINATES!A60</f>
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>+'COORDENADAS COOR'!A61</f>
+        <f>+COORDINATES!A61</f>
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>+'COORDENADAS COOR'!A62</f>
+        <f>+COORDINATES!A62</f>
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>+'COORDENADAS COOR'!A63</f>
+        <f>+COORDINATES!A63</f>
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>+'COORDENADAS COOR'!A64</f>
+        <f>+COORDINATES!A64</f>
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>+'COORDENADAS COOR'!A65</f>
+        <f>+COORDINATES!A65</f>
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>+'COORDENADAS COOR'!A66</f>
+        <f>+COORDINATES!A66</f>
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>+'COORDENADAS COOR'!A67</f>
+        <f>+COORDINATES!A67</f>
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>+'COORDENADAS COOR'!A68</f>
+        <f>+COORDINATES!A68</f>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>+'COORDENADAS COOR'!A69</f>
+        <f>+COORDINATES!A69</f>
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>+'COORDENADAS COOR'!A70</f>
+        <f>+COORDINATES!A70</f>
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>+'COORDENADAS COOR'!A71</f>
+        <f>+COORDINATES!A71</f>
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>+'COORDENADAS COOR'!A72</f>
+        <f>+COORDINATES!A72</f>
         <v>72</v>
       </c>
     </row>
